--- a/SchoolDistrictBilling/wwwroot/reportTemplates/MonthlyUnipayRequest.xlsx
+++ b/SchoolDistrictBilling/wwwroot/reportTemplates/MonthlyUnipayRequest.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhensinger/dev/omnivest/SdBilling/SchoolDistrictBilling/wwwroot/reportTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E601B1-6C5A-2047-B832-1DC59BA6A0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="-23780" windowWidth="28100" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="22240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -96,7 +108,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                                        Summary of Unipay Request for the 2022-2023 School Year</t>
+    <t xml:space="preserve">                                        Summary of Unipay Request for the 2024-2025 School Year</t>
   </si>
   <si>
     <r>
@@ -130,7 +142,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2022 to</t>
+      <t>2024 to</t>
     </r>
     <r>
       <rPr>
@@ -177,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -286,10 +298,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -300,60 +312,49 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -361,10 +362,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -373,7 +370,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -385,27 +382,23 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -417,6 +410,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -684,11 +680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -697,7 +693,7 @@
     <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="33" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
@@ -720,484 +716,483 @@
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="25">
+      <c r="B10" s="19">
         <v>1</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="25">
+      <c r="B11" s="19">
         <v>2</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="25">
+      <c r="B12" s="19">
         <v>3</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="25">
+      <c r="B13" s="19">
         <v>4</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="25">
+      <c r="B14" s="19">
         <v>5</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="25">
+      <c r="B15" s="19">
         <v>6</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="25">
+      <c r="B16" s="19">
         <v>7</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="25">
+      <c r="B17" s="19">
         <v>8</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="25">
+      <c r="B18" s="19">
         <v>9</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="25">
+      <c r="B19" s="19">
         <v>10</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="25">
+      <c r="B20" s="19">
         <v>11</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="25">
+      <c r="B21" s="19">
         <v>12</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="25">
+      <c r="B22" s="19">
         <v>13</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="25">
+      <c r="B23" s="19">
         <v>14</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="25">
+      <c r="B24" s="19">
         <v>15</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="25">
+      <c r="B25" s="19">
         <v>16</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="25">
+      <c r="B26" s="19">
         <v>17</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="25">
+      <c r="B27" s="19">
         <v>18</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="25">
+      <c r="B28" s="19">
         <v>19</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="25">
+      <c r="B29" s="19">
         <v>20</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="25">
+      <c r="B30" s="19">
         <v>21</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="25">
+      <c r="B31" s="19">
         <v>22</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="25">
+      <c r="B32" s="19">
         <v>23</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="25">
+      <c r="B33" s="19">
         <v>24</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="25">
+      <c r="B34" s="19">
         <v>25</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="25">
+      <c r="B35" s="19">
         <v>26</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="25">
+      <c r="B36" s="19">
         <v>27</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="25">
+      <c r="B37" s="19">
         <v>28</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="25">
+      <c r="B38" s="19">
         <v>29</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="25">
+      <c r="B39" s="19">
         <v>30</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="25">
+      <c r="B40" s="19">
         <v>31</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="25">
+      <c r="B41" s="19">
         <v>32</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="25">
+      <c r="B42" s="19">
         <v>33</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="29"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="25">
+      <c r="B43" s="19">
         <v>34</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="30">
+      <c r="B44" s="23">
         <v>35</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="34" t="str">
+      <c r="B45" s="6" t="str">
         <f>CONCATENATE(COUNTIF(C10:C44,"&gt;0")," SDs")</f>
         <v>0 SDs</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37">
+      <c r="D45" s="28"/>
+      <c r="E45" s="29">
         <f>SUM(E10:E44)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="29">
         <f>SUM(F10:F44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38" t="s">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38" t="s">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38" t="s">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38" t="s">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38" t="s">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40" t="s">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="41"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
